--- a/Art/补充美术需求.xlsx
+++ b/Art/补充美术需求.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>镜子道具</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>要有两张图，开关两种状态</t>
+  </si>
+  <si>
+    <t>一个洞，洞里面有尖刺或者危险的东西</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +622,9 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
